--- a/data/Motor_data.xlsx
+++ b/data/Motor_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VTOL_Optimize_Design\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D31E7-D323-475C-B416-C7807AFC9C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16FEEAD-AAA1-4A3D-8B7F-ACAD929C9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Motor</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Diameter_mm</t>
   </si>
   <si>
-    <t>U11 KV120</t>
-  </si>
-  <si>
     <t>T-MOTOR 26*8.5 CF</t>
   </si>
   <si>
@@ -69,19 +66,10 @@
     <t>WeightX4_g</t>
   </si>
   <si>
-    <t>U11 II KV120</t>
-  </si>
-  <si>
     <t>Current_A</t>
   </si>
   <si>
     <t>T/W</t>
-  </si>
-  <si>
-    <t>MN701S KV135</t>
-  </si>
-  <si>
-    <t>MN705S KV260</t>
   </si>
   <si>
     <t>MN801S KV150</t>
@@ -408,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,238 +430,96 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>47.9</v>
       </c>
       <c r="E2">
-        <v>0.65</v>
+        <v>0.66</v>
+      </c>
+      <c r="F2">
+        <v>20.76</v>
       </c>
       <c r="G2">
-        <v>6700</v>
+        <v>7360</v>
       </c>
       <c r="H2">
-        <v>12420</v>
+        <v>12076</v>
       </c>
       <c r="I2">
-        <v>792</v>
+        <v>480</v>
       </c>
       <c r="J2">
-        <f>I2*4</f>
-        <v>3168</v>
+        <f t="shared" ref="J2:J3" si="0">I2*4</f>
+        <v>1920</v>
       </c>
       <c r="K2">
-        <f>H2/3250</f>
-        <v>3.8215384615384616</v>
+        <f>H2/4775</f>
+        <v>2.5290052356020944</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>47.96</v>
       </c>
       <c r="E3">
         <v>0.6</v>
       </c>
+      <c r="F3">
+        <v>21.78</v>
+      </c>
       <c r="G3">
-        <v>4931</v>
+        <v>7541</v>
       </c>
       <c r="H3">
-        <v>12114</v>
+        <v>15993</v>
       </c>
       <c r="I3">
-        <v>772</v>
+        <v>625</v>
       </c>
       <c r="J3">
-        <f>I3*4</f>
-        <v>3088</v>
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="K3">
-        <f>H3/3250</f>
-        <v>3.7273846153846155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>79.2</v>
-      </c>
-      <c r="D4">
-        <v>47.53</v>
-      </c>
-      <c r="E4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F4">
-        <v>12.2</v>
-      </c>
-      <c r="G4">
-        <v>4943</v>
-      </c>
-      <c r="H4">
-        <v>9733</v>
-      </c>
-      <c r="I4">
-        <v>350</v>
-      </c>
-      <c r="J4">
-        <f>I4*4</f>
-        <v>1400</v>
-      </c>
-      <c r="K4">
-        <f>H4/3250</f>
-        <v>2.9947692307692306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>79.2</v>
-      </c>
-      <c r="D5">
-        <v>22.9</v>
-      </c>
-      <c r="E5">
-        <v>0.64</v>
-      </c>
-      <c r="F5">
-        <v>27.9</v>
-      </c>
-      <c r="G5">
-        <v>5110</v>
-      </c>
-      <c r="H5">
-        <v>9720</v>
-      </c>
-      <c r="I5">
-        <v>450</v>
-      </c>
-      <c r="J5">
-        <f>I5*4</f>
-        <v>1800</v>
-      </c>
-      <c r="K5">
-        <f>H5/3250</f>
-        <v>2.9907692307692306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>89</v>
-      </c>
-      <c r="D6">
-        <v>47.9</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>11.91</v>
-      </c>
-      <c r="G6">
-        <v>5057</v>
-      </c>
-      <c r="H6">
-        <v>12076</v>
-      </c>
-      <c r="I6">
-        <v>480</v>
-      </c>
-      <c r="J6">
-        <f>I6*4</f>
-        <v>1920</v>
-      </c>
-      <c r="K6">
-        <f>H6/3250</f>
-        <v>3.7156923076923078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>89</v>
-      </c>
-      <c r="D7">
-        <v>48.4</v>
-      </c>
-      <c r="E7">
-        <v>0.48</v>
-      </c>
-      <c r="F7">
-        <v>11.9</v>
-      </c>
-      <c r="G7">
-        <v>4900</v>
-      </c>
-      <c r="H7">
-        <v>15993</v>
-      </c>
-      <c r="I7">
-        <v>625</v>
-      </c>
-      <c r="J7">
-        <f>I7*4</f>
-        <v>2500</v>
-      </c>
-      <c r="K7">
-        <f>H7/3250</f>
-        <v>4.920923076923077</v>
+        <f>H3/4775</f>
+        <v>3.3493193717277485</v>
       </c>
     </row>
   </sheetData>
